--- a/2021-1S-2D/sprint-1-bd/exercicios/SP Medical group/SPMEDICALGROUP.xlsx
+++ b/2021-1S-2D/sprint-1-bd/exercicios/SP Medical group/SPMEDICALGROUP.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10\Documents\Curso\SENAI_2S\2021-1S-2D\sprint-1-bd\exercicios\SP Medical group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAFEC6-D67E-42CD-9F6C-6B08363D2D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2219B13-8BB9-4DFE-AFA6-02C16D5D9D1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="3615" windowWidth="15990" windowHeight="8190" firstSheet="4" activeTab="7" xr2:uid="{DE495C9F-DD90-4710-8D27-4A2F27D2F19E}"/>
+    <workbookView xWindow="15420" yWindow="2310" windowWidth="15990" windowHeight="8535" xr2:uid="{DE495C9F-DD90-4710-8D27-4A2F27D2F19E}"/>
   </bookViews>
   <sheets>
-    <sheet name="clinicas" sheetId="6" r:id="rId1"/>
-    <sheet name="consultas" sheetId="7" r:id="rId2"/>
-    <sheet name="especialidades" sheetId="2" r:id="rId3"/>
-    <sheet name="medicos" sheetId="5" r:id="rId4"/>
-    <sheet name="situacoes" sheetId="8" r:id="rId5"/>
-    <sheet name="pacientes" sheetId="9" r:id="rId6"/>
-    <sheet name="tiposUsuarios" sheetId="1" r:id="rId7"/>
-    <sheet name="usuarios" sheetId="10" r:id="rId8"/>
+    <sheet name="Modelo Físico" sheetId="11" r:id="rId1"/>
+    <sheet name="clinicas" sheetId="6" r:id="rId2"/>
+    <sheet name="consultas" sheetId="7" r:id="rId3"/>
+    <sheet name="especialidades" sheetId="2" r:id="rId4"/>
+    <sheet name="medicos" sheetId="5" r:id="rId5"/>
+    <sheet name="situacoes" sheetId="8" r:id="rId6"/>
+    <sheet name="pacientes" sheetId="9" r:id="rId7"/>
+    <sheet name="tiposUsuarios" sheetId="1" r:id="rId8"/>
+    <sheet name="usuarios" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
   <si>
     <t>idTipo</t>
   </si>
@@ -278,13 +279,85 @@
   </si>
   <si>
     <t>fernanda.strada@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>tiposUsuarios</t>
+  </si>
+  <si>
+    <t>especialidades</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>situacoes</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>clinicas</t>
+  </si>
+  <si>
+    <t>NomeClinica</t>
+  </si>
+  <si>
+    <t>horarioAbertura</t>
+  </si>
+  <si>
+    <t>horarioFechamento</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>consultas</t>
+  </si>
+  <si>
+    <t>medicos</t>
+  </si>
+  <si>
+    <t>pacientes</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>r123456</t>
+  </si>
+  <si>
+    <t>rp12345</t>
+  </si>
+  <si>
+    <t>h123456</t>
+  </si>
+  <si>
+    <t>l123456</t>
+  </si>
+  <si>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>f123456</t>
+  </si>
+  <si>
+    <t>j123456</t>
+  </si>
+  <si>
+    <t>b123456</t>
+  </si>
+  <si>
+    <t>m123456</t>
+  </si>
+  <si>
+    <t>fs12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,13 +373,171 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5D5D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1DFF83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93FFC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,6 +567,91 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -374,6 +690,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF93FFC4"/>
+      <color rgb="FF1DFF83"/>
+      <color rgb="FFFFA3A3"/>
+      <color rgb="FFFF5D5D"/>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -476,14 +801,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68FBF61F-9B6F-4DEE-819E-F1068C67A797}" name="Tabela1" displayName="Tabela1" ref="A1:E12" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68FBF61F-9B6F-4DEE-819E-F1068C67A797}" name="Tabela1" displayName="Tabela1" ref="A1:E12" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E12" xr:uid="{830C197B-C384-4237-9026-1A2FA47BE4EE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E247141B-6107-4269-9023-2B5B8417CD38}" name="idUsuario" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5AAA0107-98B5-4175-9E73-D42AA2B33DE4}" name="idTipo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{EADFDEDF-2475-4445-9A49-FCBCB058A69C}" name="nome" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{99879FA9-4685-4C56-8E32-D89509AD5481}" name="dataNascimento" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0469CB46-057D-49A1-A6FB-506EC4C6DEA0}" name="email" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E247141B-6107-4269-9023-2B5B8417CD38}" name="idUsuario" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5AAA0107-98B5-4175-9E73-D42AA2B33DE4}" name="idTipo" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EADFDEDF-2475-4445-9A49-FCBCB058A69C}" name="nome" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{99879FA9-4685-4C56-8E32-D89509AD5481}" name="dataNascimento" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0469CB46-057D-49A1-A6FB-506EC4C6DEA0}" name="email" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -785,10 +1110,1078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0349CF10-AC96-4F3F-878C-185F2D565467}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="76" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="74.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="17">
+        <v>86400902000130</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="9">
+        <v>28053</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="9">
+        <v>31788</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="9">
+        <v>28541</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="19">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="9">
+        <v>30602</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="9">
+        <v>36914</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="9">
+        <v>28773</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="19">
+        <v>7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="9">
+        <v>31333</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="19">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="9">
+        <v>27633</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="19">
+        <v>9</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="9">
+        <v>26379</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="19">
+        <v>10</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="9">
+        <v>43164</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="19">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="9">
+        <v>30034</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11">
+        <v>43881.625</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="10">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="10">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>43503.458333333336</v>
+      </c>
+      <c r="H31" s="10">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="10">
+        <v>6</v>
+      </c>
+      <c r="E32" s="10">
+        <v>7</v>
+      </c>
+      <c r="F32" s="10">
+        <v>3</v>
+      </c>
+      <c r="G32" s="11">
+        <v>43898.625</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="10">
+        <v>7</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="10">
+        <v>2</v>
+      </c>
+      <c r="G33" s="11">
+        <v>43899.458333333336</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>4</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1134567654</v>
+      </c>
+      <c r="G37" s="12">
+        <v>435225435</v>
+      </c>
+      <c r="H37" s="12">
+        <v>94839859000</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="12">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>5</v>
+      </c>
+      <c r="F38" s="12">
+        <v>11987656543</v>
+      </c>
+      <c r="G38" s="12">
+        <v>326543457</v>
+      </c>
+      <c r="H38" s="12">
+        <v>73556944057</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
+      <c r="E39" s="12">
+        <v>6</v>
+      </c>
+      <c r="F39" s="12">
+        <v>11972084453</v>
+      </c>
+      <c r="G39" s="12">
+        <v>546365253</v>
+      </c>
+      <c r="H39" s="12">
+        <v>16839338002</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="12">
+        <v>4</v>
+      </c>
+      <c r="E40" s="12">
+        <v>7</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1134566543</v>
+      </c>
+      <c r="G40" s="12">
+        <v>543663625</v>
+      </c>
+      <c r="H40" s="12">
+        <v>14332654765</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="12">
+        <v>5</v>
+      </c>
+      <c r="E41" s="12">
+        <v>8</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1176566377</v>
+      </c>
+      <c r="G41" s="12">
+        <v>325444447</v>
+      </c>
+      <c r="H41" s="12">
+        <v>91305348010</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="12">
+        <v>6</v>
+      </c>
+      <c r="E42" s="12">
+        <v>9</v>
+      </c>
+      <c r="F42" s="12">
+        <v>11954368769</v>
+      </c>
+      <c r="G42" s="12">
+        <v>545662667</v>
+      </c>
+      <c r="H42" s="12">
+        <v>79799299004</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="12">
+        <v>7</v>
+      </c>
+      <c r="E43" s="12">
+        <v>10</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>545662668</v>
+      </c>
+      <c r="H43" s="12">
+        <v>13771913039</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D5:I5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{09BA2D76-B0CE-4C09-8068-E4380E5860E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5BB929-8F41-4662-BDE6-0A7DE76CFA80}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -843,7 +2236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E9CC1-5BE2-4E55-AEB6-B95901EDF055}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1004,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5338CAB5-FEA0-461F-BB9F-011FAA6D955F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -1170,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF3780-D385-44F7-991E-BFAF92DA9865}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1262,7 +2655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D47508-F4C0-40B6-9C2B-D73DC1B38DE2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1316,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D278F-6B70-445D-80C8-43CA14EAD461}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1499,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A74B1F3-BC60-4CD9-BD81-086FE46AF497}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1553,11 +2946,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B743F-3383-4B31-AFE8-67570EC252FF}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
